--- a/static/res.xlsx
+++ b/static/res.xlsx
@@ -30,24 +30,12 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="007FFFD4"/>
-        <bgColor rgb="00FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FF0000"/>
-        <bgColor rgb="00FFC7CE"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="6">
@@ -97,15 +85,13 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="5" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
@@ -728,7 +714,7 @@
           <t>A</t>
         </is>
       </c>
-      <c r="J4" s="4" t="n">
+      <c r="J4" t="n">
         <v>58</v>
       </c>
       <c r="K4" t="n">
@@ -742,7 +728,7 @@
           <t>A</t>
         </is>
       </c>
-      <c r="N4" s="4" t="n">
+      <c r="N4" t="n">
         <v>50</v>
       </c>
       <c r="O4" t="n">
@@ -855,7 +841,7 @@
           <t>F</t>
         </is>
       </c>
-      <c r="F5" s="5" t="n">
+      <c r="F5" t="n">
         <v>19</v>
       </c>
       <c r="G5" t="n">
@@ -1334,7 +1320,7 @@
           <t>F</t>
         </is>
       </c>
-      <c r="V8" s="5" t="n">
+      <c r="V8" t="n">
         <v>33</v>
       </c>
       <c r="W8" t="n">
@@ -1348,7 +1334,7 @@
           <t>F</t>
         </is>
       </c>
-      <c r="Z8" s="5" t="n">
+      <c r="Z8" t="n">
         <v>43</v>
       </c>
       <c r="AA8" t="n">
@@ -1390,7 +1376,7 @@
           <t>F</t>
         </is>
       </c>
-      <c r="AL8" s="5" t="n">
+      <c r="AL8" t="n">
         <v>33</v>
       </c>
       <c r="AM8" t="n">
@@ -1560,7 +1546,7 @@
           <t>A</t>
         </is>
       </c>
-      <c r="F10" s="4" t="n">
+      <c r="F10" t="n">
         <v>10</v>
       </c>
       <c r="G10" t="n">
@@ -1771,7 +1757,7 @@
           <t>F</t>
         </is>
       </c>
-      <c r="Z11" s="5" t="n">
+      <c r="Z11" t="n">
         <v>44</v>
       </c>
       <c r="AA11" t="n">
@@ -2744,7 +2730,7 @@
           <t>F</t>
         </is>
       </c>
-      <c r="V18" s="5" t="n">
+      <c r="V18" t="n">
         <v>54</v>
       </c>
       <c r="W18" t="n">
@@ -2758,7 +2744,7 @@
           <t>F</t>
         </is>
       </c>
-      <c r="Z18" s="5" t="n">
+      <c r="Z18" t="n">
         <v>54</v>
       </c>
       <c r="AA18" t="n">
@@ -2843,7 +2829,7 @@
           <t>F</t>
         </is>
       </c>
-      <c r="J19" s="5" t="n">
+      <c r="J19" t="n">
         <v>35</v>
       </c>
       <c r="K19" t="n">
@@ -2857,7 +2843,7 @@
           <t>F</t>
         </is>
       </c>
-      <c r="N19" s="5" t="n">
+      <c r="N19" t="n">
         <v>34</v>
       </c>
       <c r="O19" t="n">
@@ -2871,7 +2857,7 @@
           <t>F</t>
         </is>
       </c>
-      <c r="R19" s="5" t="n">
+      <c r="R19" t="n">
         <v>37</v>
       </c>
       <c r="S19" t="n">
@@ -2885,7 +2871,7 @@
           <t>F</t>
         </is>
       </c>
-      <c r="V19" s="5" t="n">
+      <c r="V19" t="n">
         <v>28</v>
       </c>
       <c r="W19" t="n">
@@ -2899,7 +2885,7 @@
           <t>F</t>
         </is>
       </c>
-      <c r="Z19" s="5" t="n">
+      <c r="Z19" t="n">
         <v>21</v>
       </c>
       <c r="AA19" t="n">
@@ -2913,7 +2899,7 @@
           <t>F</t>
         </is>
       </c>
-      <c r="AD19" s="5" t="n">
+      <c r="AD19" t="n">
         <v>40</v>
       </c>
       <c r="AE19" t="n">
@@ -4295,7 +4281,7 @@
           <t>F</t>
         </is>
       </c>
-      <c r="V29" s="5" t="n">
+      <c r="V29" t="n">
         <v>47</v>
       </c>
       <c r="W29" t="n">
@@ -4436,7 +4422,7 @@
           <t>F</t>
         </is>
       </c>
-      <c r="V30" s="5" t="n">
+      <c r="V30" t="n">
         <v>35</v>
       </c>
       <c r="W30" t="n">
@@ -4535,7 +4521,7 @@
           <t>F</t>
         </is>
       </c>
-      <c r="J31" s="5" t="n">
+      <c r="J31" t="n">
         <v>33</v>
       </c>
       <c r="K31" t="n">
@@ -4563,7 +4549,7 @@
           <t>F</t>
         </is>
       </c>
-      <c r="R31" s="5" t="n">
+      <c r="R31" t="n">
         <v>37</v>
       </c>
       <c r="S31" t="n">
@@ -4633,7 +4619,7 @@
           <t>F</t>
         </is>
       </c>
-      <c r="AL31" s="5" t="n">
+      <c r="AL31" t="n">
         <v>35</v>
       </c>
       <c r="AM31" t="n">
@@ -5099,7 +5085,7 @@
           <t>F</t>
         </is>
       </c>
-      <c r="J35" s="5" t="n">
+      <c r="J35" t="n">
         <v>36</v>
       </c>
       <c r="K35" t="n">
@@ -5113,7 +5099,7 @@
           <t>F</t>
         </is>
       </c>
-      <c r="N35" s="5" t="n">
+      <c r="N35" t="n">
         <v>37</v>
       </c>
       <c r="O35" t="n">
@@ -5127,7 +5113,7 @@
           <t>F</t>
         </is>
       </c>
-      <c r="R35" s="5" t="n">
+      <c r="R35" t="n">
         <v>34</v>
       </c>
       <c r="S35" t="n">
@@ -5155,7 +5141,7 @@
           <t>F</t>
         </is>
       </c>
-      <c r="Z35" s="5" t="n">
+      <c r="Z35" t="n">
         <v>36</v>
       </c>
       <c r="AA35" t="n">
@@ -5183,7 +5169,7 @@
           <t>F</t>
         </is>
       </c>
-      <c r="AH35" s="5" t="n">
+      <c r="AH35" t="n">
         <v>29</v>
       </c>
       <c r="AI35" t="n">
@@ -5197,7 +5183,7 @@
           <t>F</t>
         </is>
       </c>
-      <c r="AL35" s="5" t="n">
+      <c r="AL35" t="n">
         <v>21</v>
       </c>
       <c r="AM35" t="n">
@@ -5437,7 +5423,7 @@
           <t>F</t>
         </is>
       </c>
-      <c r="Z37" s="5" t="n">
+      <c r="Z37" t="n">
         <v>36</v>
       </c>
       <c r="AA37" t="n">
@@ -5451,7 +5437,7 @@
           <t>F</t>
         </is>
       </c>
-      <c r="AD37" s="5" t="n">
+      <c r="AD37" t="n">
         <v>51</v>
       </c>
       <c r="AE37" t="n">
@@ -5818,7 +5804,7 @@
           <t>F</t>
         </is>
       </c>
-      <c r="N40" s="5" t="n">
+      <c r="N40" t="n">
         <v>29</v>
       </c>
       <c r="O40" t="n">
@@ -5832,7 +5818,7 @@
           <t>F</t>
         </is>
       </c>
-      <c r="R40" s="5" t="n">
+      <c r="R40" t="n">
         <v>30</v>
       </c>
       <c r="S40" t="n">
@@ -5874,7 +5860,7 @@
           <t>F</t>
         </is>
       </c>
-      <c r="AD40" s="5" t="n">
+      <c r="AD40" t="n">
         <v>44</v>
       </c>
       <c r="AE40" t="n">
@@ -6015,7 +6001,7 @@
           <t>F</t>
         </is>
       </c>
-      <c r="AD41" s="5" t="n">
+      <c r="AD41" t="n">
         <v>38</v>
       </c>
       <c r="AE41" t="n">
@@ -7679,7 +7665,7 @@
           <t>F</t>
         </is>
       </c>
-      <c r="V53" s="5" t="n">
+      <c r="V53" t="n">
         <v>38</v>
       </c>
       <c r="W53" t="n">
@@ -7693,7 +7679,7 @@
           <t>F</t>
         </is>
       </c>
-      <c r="Z53" s="5" t="n">
+      <c r="Z53" t="n">
         <v>42</v>
       </c>
       <c r="AA53" t="n">
@@ -7764,7 +7750,7 @@
           <t>F</t>
         </is>
       </c>
-      <c r="F54" s="5" t="n">
+      <c r="F54" t="n">
         <v>18</v>
       </c>
       <c r="G54" t="n">
@@ -7778,7 +7764,7 @@
           <t>F</t>
         </is>
       </c>
-      <c r="J54" s="5" t="n">
+      <c r="J54" t="n">
         <v>34</v>
       </c>
       <c r="K54" t="n">
@@ -7806,7 +7792,7 @@
           <t>F</t>
         </is>
       </c>
-      <c r="R54" s="5" t="n">
+      <c r="R54" t="n">
         <v>26</v>
       </c>
       <c r="S54" t="n">
@@ -7820,7 +7806,7 @@
           <t>F</t>
         </is>
       </c>
-      <c r="V54" s="5" t="n">
+      <c r="V54" t="n">
         <v>31</v>
       </c>
       <c r="W54" t="n">
@@ -7834,7 +7820,7 @@
           <t>F</t>
         </is>
       </c>
-      <c r="Z54" s="5" t="n">
+      <c r="Z54" t="n">
         <v>33</v>
       </c>
       <c r="AA54" t="n">
@@ -8495,7 +8481,7 @@
       </c>
       <c r="G3" s="1" t="inlineStr">
         <is>
-          <t>appeared</t>
+          <t>Appeared</t>
         </is>
       </c>
       <c r="H3" s="1" t="inlineStr">
@@ -8515,7 +8501,7 @@
       </c>
       <c r="K3" s="1" t="inlineStr">
         <is>
-          <t>pass_%</t>
+          <t>Pass Percentage</t>
         </is>
       </c>
       <c r="L3" s="1" t="inlineStr">
@@ -8545,7 +8531,7 @@
         <v>2</v>
       </c>
       <c r="G4" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -8557,7 +8543,7 @@
         <v>52</v>
       </c>
       <c r="K4" t="n">
-        <v>94.55</v>
+        <v>96.3</v>
       </c>
       <c r="L4" t="n">
         <v>12.24</v>
@@ -8582,7 +8568,7 @@
         <v>4</v>
       </c>
       <c r="G5" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H5" t="n">
         <v>9</v>
@@ -8594,7 +8580,7 @@
         <v>28</v>
       </c>
       <c r="K5" t="n">
-        <v>90.91</v>
+        <v>92.59</v>
       </c>
       <c r="L5" t="n">
         <v>31.09</v>
@@ -8619,7 +8605,7 @@
         <v>3</v>
       </c>
       <c r="G6" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H6" t="n">
         <v>9</v>
@@ -8631,7 +8617,7 @@
         <v>28</v>
       </c>
       <c r="K6" t="n">
-        <v>92.73</v>
+        <v>94.44</v>
       </c>
       <c r="L6" t="n">
         <v>29.47</v>
